--- a/input_data/admin_data/CHL/_clean/total-pre-CHL.xlsx
+++ b/input_data/admin_data/CHL/_clean/total-pre-CHL.xlsx
@@ -181,16 +181,16 @@
         <v>1.6156335E7</v>
       </c>
       <c r="F2" t="n">
-        <v>789426.8467032413</v>
+        <v>1541565.1272247739</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6762153669133502</v>
+        <v>0.5648847340687104</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>1596463.7996608666</v>
+        <v>1602694.4144907875</v>
       </c>
     </row>
     <row r="3">
@@ -207,13 +207,13 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.9686596619839833</v>
+        <v>0.9308043563097695</v>
       </c>
       <c r="H3" t="n">
         <v>5114502.0</v>
       </c>
       <c r="I3" t="n">
-        <v>7460121.99715197</v>
+        <v>7698923.805832921</v>
       </c>
     </row>
     <row r="4">
@@ -230,13 +230,13 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9942601462522286</v>
+        <v>0.9763434590827684</v>
       </c>
       <c r="H4" t="n">
         <v>1.136556E7</v>
       </c>
       <c r="I4" t="n">
-        <v>1.5426066529446375E7</v>
+        <v>1.521384852026093E7</v>
       </c>
     </row>
     <row r="5">
@@ -253,13 +253,13 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.998129031119991</v>
+        <v>0.9890600188718542</v>
       </c>
       <c r="H5" t="n">
         <v>1.89426E7</v>
       </c>
       <c r="I5" t="n">
-        <v>2.4539107228175387E7</v>
+        <v>2.37886549226581E7</v>
       </c>
     </row>
     <row r="6">
@@ -276,13 +276,13 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9991475789527761</v>
+        <v>0.9942026455876286</v>
       </c>
       <c r="H6" t="n">
         <v>2.651964E7</v>
       </c>
       <c r="I6" t="n">
-        <v>3.3496342043270078E7</v>
+        <v>3.230290757821384E7</v>
       </c>
     </row>
     <row r="7">
@@ -299,13 +299,13 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9994983391963586</v>
+        <v>0.9967634986523862</v>
       </c>
       <c r="H7" t="n">
         <v>3.409668E7</v>
       </c>
       <c r="I7" t="n">
-        <v>4.361872223410424E7</v>
+        <v>4.276909254451166E7</v>
       </c>
     </row>
     <row r="8">
@@ -322,13 +322,13 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9997058738878588</v>
+        <v>0.998470135708377</v>
       </c>
       <c r="H8" t="n">
         <v>4.546224E7</v>
       </c>
       <c r="I8" t="n">
-        <v>5.682399867291418E7</v>
+        <v>5.666803689180757E7</v>
       </c>
     </row>
     <row r="9">
@@ -345,13 +345,13 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.9997894324424444</v>
+        <v>0.9991392230973175</v>
       </c>
       <c r="H9" t="n">
         <v>5.68278E7</v>
       </c>
       <c r="I9" t="n">
-        <v>1.0135339187054051E8</v>
+        <v>1.1044852180295756E8</v>
       </c>
     </row>
   </sheetData>
@@ -411,16 +411,16 @@
         <v>1.78645995E7</v>
       </c>
       <c r="F2" t="n">
-        <v>1262177.8803971966</v>
+        <v>3468379.333890202</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6453248783998768</v>
+        <v>0.47876570084876513</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>2520155.336581758</v>
+        <v>2627730.837926719</v>
       </c>
     </row>
     <row r="3">
@@ -437,13 +437,13 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.9662396573737911</v>
+        <v>0.878330213895923</v>
       </c>
       <c r="H3" t="n">
         <v>6998076.0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.0139676495873703E7</v>
+        <v>1.0589267269157723E7</v>
       </c>
     </row>
     <row r="4">
@@ -460,13 +460,13 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9947426193349591</v>
+        <v>0.9572380002137747</v>
       </c>
       <c r="H4" t="n">
         <v>1.555128E7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.099113913916606E7</v>
+        <v>2.0640275002616446E7</v>
       </c>
     </row>
     <row r="5">
@@ -483,13 +483,13 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9985132608206526</v>
+        <v>0.979203452056118</v>
       </c>
       <c r="H5" t="n">
         <v>2.59188E7</v>
       </c>
       <c r="I5" t="n">
-        <v>3.376690095197994E7</v>
+        <v>3.217662730158276E7</v>
       </c>
     </row>
     <row r="6">
@@ -506,13 +506,13 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9992937429131843</v>
+        <v>0.9880454079029312</v>
       </c>
       <c r="H6" t="n">
         <v>3.628632E7</v>
       </c>
       <c r="I6" t="n">
-        <v>4.5948564368036404E7</v>
+        <v>4.359673265303428E7</v>
       </c>
     </row>
     <row r="7">
@@ -529,13 +529,13 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9995551537553361</v>
+        <v>0.9927922257647029</v>
       </c>
       <c r="H7" t="n">
         <v>4.665384E7</v>
       </c>
       <c r="I7" t="n">
-        <v>5.991842911673917E7</v>
+        <v>5.761732637248246E7</v>
       </c>
     </row>
     <row r="8">
@@ -552,13 +552,13 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9997222439831355</v>
+        <v>0.9963049829356656</v>
       </c>
       <c r="H8" t="n">
         <v>6.220512E7</v>
       </c>
       <c r="I8" t="n">
-        <v>7.77296030029674E7</v>
+        <v>7.548498719797449E7</v>
       </c>
     </row>
     <row r="9">
@@ -575,13 +575,13 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.999801282978664</v>
+        <v>0.9978705931806644</v>
       </c>
       <c r="H9" t="n">
         <v>7.77564E7</v>
       </c>
       <c r="I9" t="n">
-        <v>1.5469508201063758E8</v>
+        <v>1.4908232656754297E8</v>
       </c>
     </row>
   </sheetData>
@@ -641,16 +641,16 @@
         <v>1.8048518E7</v>
       </c>
       <c r="F2" t="n">
-        <v>1316743.3664886395</v>
+        <v>3714335.508047553</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6455750549712724</v>
+        <v>0.4732553664516943</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>2639153.9538535555</v>
+        <v>2746382.195412842</v>
       </c>
     </row>
     <row r="3">
@@ -667,13 +667,13 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.9662023773918723</v>
+        <v>0.874651425673842</v>
       </c>
       <c r="H3" t="n">
         <v>7282710.0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.054083079559757E7</v>
+        <v>1.1015686270208424E7</v>
       </c>
     </row>
     <row r="4">
@@ -690,13 +690,13 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9947203975417815</v>
+        <v>0.9558061221425493</v>
       </c>
       <c r="H4" t="n">
         <v>1.61838E7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.1815154260427162E7</v>
+        <v>2.153498729353957E7</v>
       </c>
     </row>
     <row r="5">
@@ -713,13 +713,13 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9985362233065341</v>
+        <v>0.978614643041606</v>
       </c>
       <c r="H5" t="n">
         <v>2.6973E7</v>
       </c>
       <c r="I5" t="n">
-        <v>3.516538772061776E7</v>
+        <v>3.34325106043156E7</v>
       </c>
     </row>
     <row r="6">
@@ -736,13 +736,13 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.999318004946445</v>
+        <v>0.9877198227577466</v>
       </c>
       <c r="H6" t="n">
         <v>3.77622E7</v>
       </c>
       <c r="I6" t="n">
-        <v>4.774895231212362E7</v>
+        <v>4.512362012449043E7</v>
       </c>
     </row>
     <row r="7">
@@ -759,13 +759,13 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9995681639899742</v>
+        <v>0.9925230426121413</v>
       </c>
       <c r="H7" t="n">
         <v>4.85514E7</v>
       </c>
       <c r="I7" t="n">
-        <v>6.245009335877398E7</v>
+        <v>5.99495081594233E7</v>
       </c>
     </row>
     <row r="8">
@@ -782,13 +782,13 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9997327758434238</v>
+        <v>0.9960108636066407</v>
       </c>
       <c r="H8" t="n">
         <v>6.47352E7</v>
       </c>
       <c r="I8" t="n">
-        <v>8.102873685306703E7</v>
+        <v>7.822396292709775E7</v>
       </c>
     </row>
     <row r="9">
@@ -805,13 +805,13 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.9998111202260485</v>
+        <v>0.9976973732690961</v>
       </c>
       <c r="H9" t="n">
         <v>8.0919E7</v>
       </c>
       <c r="I9" t="n">
-        <v>1.6225871491314316E8</v>
+        <v>1.5835233797112516E8</v>
       </c>
     </row>
   </sheetData>
@@ -871,16 +871,16 @@
         <v>1.8300725E7</v>
       </c>
       <c r="F2" t="n">
-        <v>1381535.4847104445</v>
+        <v>3867322.394098475</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6427200561726379</v>
+        <v>0.46750617803393035</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>2735393.121744326</v>
+        <v>2839793.9304960947</v>
       </c>
     </row>
     <row r="3">
@@ -897,13 +897,13 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.9646135330704111</v>
+        <v>0.8723375166830822</v>
       </c>
       <c r="H3" t="n">
         <v>7481646.0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.081172005585281E7</v>
+        <v>1.1305874830613397E7</v>
       </c>
     </row>
     <row r="4">
@@ -920,13 +920,13 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9945524562551483</v>
+        <v>0.9552526470945824</v>
       </c>
       <c r="H4" t="n">
         <v>1.662588E7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.237170756523739E7</v>
+        <v>2.2129679016331825E7</v>
       </c>
     </row>
     <row r="5">
@@ -943,13 +943,13 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9985344842895568</v>
+        <v>0.978526260571644</v>
       </c>
       <c r="H5" t="n">
         <v>2.77098E7</v>
       </c>
       <c r="I5" t="n">
-        <v>3.607388158711973E7</v>
+        <v>3.4330567393540144E7</v>
       </c>
     </row>
     <row r="6">
@@ -966,13 +966,13 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9993376218701718</v>
+        <v>0.987629998265096</v>
       </c>
       <c r="H6" t="n">
         <v>3.879372E7</v>
       </c>
       <c r="I6" t="n">
-        <v>4.887234421189117E7</v>
+        <v>4.6425375276729114E7</v>
       </c>
     </row>
     <row r="7">
@@ -989,13 +989,13 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9995801259239729</v>
+        <v>0.9924050549909907</v>
       </c>
       <c r="H7" t="n">
         <v>4.987764E7</v>
       </c>
       <c r="I7" t="n">
-        <v>6.413521960977322E7</v>
+        <v>6.15954815965232E7</v>
       </c>
     </row>
     <row r="8">
@@ -1012,13 +1012,13 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9997401195854263</v>
+        <v>0.9959732742828494</v>
       </c>
       <c r="H8" t="n">
         <v>6.650352E7</v>
       </c>
       <c r="I8" t="n">
-        <v>8.321585490008931E7</v>
+        <v>8.03722422396484E7</v>
       </c>
     </row>
     <row r="9">
@@ -1035,13 +1035,13 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.9998215371248953</v>
+        <v>0.9976705294462378</v>
       </c>
       <c r="H9" t="n">
         <v>8.31294E7</v>
       </c>
       <c r="I9" t="n">
-        <v>1.7030863571474245E8</v>
+        <v>1.608951285453455E8</v>
       </c>
     </row>
   </sheetData>
@@ -1101,16 +1101,16 @@
         <v>1.8552932E7</v>
       </c>
       <c r="F2" t="n">
-        <v>1456902.5917674762</v>
+        <v>4103384.502282621</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6512135655970711</v>
+        <v>0.46203640481191866</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>2790984.7731945557</v>
+        <v>2899060.8939297716</v>
       </c>
     </row>
     <row r="3">
@@ -1127,13 +1127,13 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.9602915593071758</v>
+        <v>0.8674554512461965</v>
       </c>
       <c r="H3" t="n">
         <v>7609464.0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.1048260372596439E7</v>
+        <v>1.1526054925372098E7</v>
       </c>
     </row>
     <row r="4">
@@ -1150,13 +1150,13 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9934078883057406</v>
+        <v>0.9538495586573594</v>
       </c>
       <c r="H4" t="n">
         <v>1.690992E7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.2655961306699496E7</v>
+        <v>2.247970148674929E7</v>
       </c>
     </row>
     <row r="5">
@@ -1173,13 +1173,13 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.998134472761502</v>
+        <v>0.9781913176849891</v>
       </c>
       <c r="H5" t="n">
         <v>2.81832E7</v>
       </c>
       <c r="I5" t="n">
-        <v>3.645285782766622E7</v>
+        <v>3.484356884764079E7</v>
       </c>
     </row>
     <row r="6">
@@ -1196,13 +1196,13 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9990793907938648</v>
+        <v>0.987420263276985</v>
       </c>
       <c r="H6" t="n">
         <v>3.945648E7</v>
       </c>
       <c r="I6" t="n">
-        <v>4.973460979043849E7</v>
+        <v>4.718782466135174E7</v>
       </c>
     </row>
     <row r="7">
@@ -1219,13 +1219,13 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.999376217193056</v>
+        <v>0.9920452465410858</v>
       </c>
       <c r="H7" t="n">
         <v>5.072976E7</v>
       </c>
       <c r="I7" t="n">
-        <v>6.525283073153804E7</v>
+        <v>6.254140640828143E7</v>
       </c>
     </row>
     <row r="8">
@@ -1242,13 +1242,13 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9995678311115461</v>
+        <v>0.9955066401364485</v>
       </c>
       <c r="H8" t="n">
         <v>6.763968E7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.3790122533378622E8</v>
+        <v>1.3993505757630387E8</v>
       </c>
     </row>
   </sheetData>
@@ -1308,16 +1308,16 @@
         <v>1.888368E7</v>
       </c>
       <c r="F2" t="n">
-        <v>1460985.1485679739</v>
+        <v>4325463.248193132</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6466730531337113</v>
+        <v>0.45540397846182523</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>2892540.7471828847</v>
+        <v>3004240.3938386124</v>
       </c>
     </row>
     <row r="3">
@@ -1334,13 +1334,13 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.9622435881141811</v>
+        <v>0.8638960732230159</v>
       </c>
       <c r="H3" t="n">
         <v>7833186.0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.13741376277026E7</v>
+        <v>1.189455809711046E7</v>
       </c>
     </row>
     <row r="4">
@@ -1357,13 +1357,13 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.994324040653093</v>
+        <v>0.9525272086796641</v>
       </c>
       <c r="H4" t="n">
         <v>1.740708E7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.33618923157866E7</v>
+        <v>2.3115009818430748E7</v>
       </c>
     </row>
     <row r="5">
@@ -1380,13 +1380,13 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9986145708887251</v>
+        <v>0.9776674885403692</v>
       </c>
       <c r="H5" t="n">
         <v>2.90118E7</v>
       </c>
       <c r="I5" t="n">
-        <v>3.7705556081377044E7</v>
+        <v>3.587944723159353E7</v>
       </c>
     </row>
     <row r="6">
@@ -1403,13 +1403,13 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9993985282529676</v>
+        <v>0.9870517822797251</v>
       </c>
       <c r="H6" t="n">
         <v>4.061652E7</v>
       </c>
       <c r="I6" t="n">
-        <v>5.1193956116054565E7</v>
+        <v>4.8559910818014726E7</v>
       </c>
     </row>
     <row r="7">
@@ -1426,13 +1426,13 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9996301038780576</v>
+        <v>0.9917963553714106</v>
       </c>
       <c r="H7" t="n">
         <v>5.222124E7</v>
       </c>
       <c r="I7" t="n">
-        <v>6.725922948134995E7</v>
+        <v>6.434548781544041E7</v>
       </c>
     </row>
     <row r="8">
@@ -1449,13 +1449,13 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9997734551739915</v>
+        <v>0.9954643374596477</v>
       </c>
       <c r="H8" t="n">
         <v>6.962832E7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.4127716774917343E8</v>
+        <v>1.454674746992077E8</v>
       </c>
     </row>
   </sheetData>
@@ -1515,16 +1515,16 @@
         <v>1.9214428E7</v>
       </c>
       <c r="F2" t="n">
-        <v>1517938.9447415245</v>
+        <v>4557113.347161226</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6509250236332822</v>
+        <v>0.45314973727034713</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>3027386.2772379327</v>
+        <v>3135646.6769501506</v>
       </c>
     </row>
     <row r="3">
@@ -1541,13 +1541,13 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.961346754636672</v>
+        <v>0.8594570184446813</v>
       </c>
       <c r="H3" t="n">
         <v>8038926.0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.1681248243702719E7</v>
+        <v>1.2211530498389695E7</v>
       </c>
     </row>
     <row r="4">
@@ -1564,13 +1564,13 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9941811955057939</v>
+        <v>0.9513523899852756</v>
       </c>
       <c r="H4" t="n">
         <v>1.786428E7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.4006571023033805E7</v>
+        <v>2.373259334452581E7</v>
       </c>
     </row>
     <row r="5">
@@ -1587,13 +1587,13 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9985683154346306</v>
+        <v>0.9775300623052635</v>
       </c>
       <c r="H5" t="n">
         <v>2.97738E7</v>
       </c>
       <c r="I5" t="n">
-        <v>3.869393745174711E7</v>
+        <v>3.680471150006072E7</v>
       </c>
     </row>
     <row r="6">
@@ -1610,13 +1610,13 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9993708373728325</v>
+        <v>0.987171671204576</v>
       </c>
       <c r="H6" t="n">
         <v>4.168332E7</v>
       </c>
       <c r="I6" t="n">
-        <v>5.246473806602456E7</v>
+        <v>4.9825456156438455E7</v>
       </c>
     </row>
     <row r="7">
@@ -1633,13 +1633,13 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9996064415760907</v>
+        <v>0.9918613242090787</v>
       </c>
       <c r="H7" t="n">
         <v>5.359284E7</v>
       </c>
       <c r="I7" t="n">
-        <v>6.893567347490858E7</v>
+        <v>6.600695852685047E7</v>
       </c>
     </row>
     <row r="8">
@@ -1656,13 +1656,13 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9997586188878482</v>
+        <v>0.9953999671496856</v>
       </c>
       <c r="H8" t="n">
         <v>7.145712E7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.4666186169670868E8</v>
+        <v>1.5598460238160047E8</v>
       </c>
     </row>
   </sheetData>
@@ -1722,16 +1722,16 @@
         <v>1.9545176E7</v>
       </c>
       <c r="F2" t="n">
-        <v>1441154.5538699497</v>
+        <v>4214936.606360641</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6645241772189721</v>
+        <v>0.47230815419620675</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>2996666.7209012946</v>
+        <v>3139803.6129218745</v>
       </c>
     </row>
     <row r="3">
@@ -1748,13 +1748,13 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.9650374598826841</v>
+        <v>0.8704249068926266</v>
       </c>
       <c r="H3" t="n">
         <v>8266698.0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.2038358289038224E7</v>
+        <v>1.2587098020040205E7</v>
       </c>
     </row>
     <row r="4">
@@ -1771,13 +1771,13 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9944014318418007</v>
+        <v>0.9559488233823016</v>
       </c>
       <c r="H4" t="n">
         <v>1.837044E7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.466955424065882E7</v>
+        <v>2.4761780947305683E7</v>
       </c>
     </row>
     <row r="5">
@@ -1794,13 +1794,13 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9986700043018287</v>
+        <v>0.9798714526796791</v>
       </c>
       <c r="H5" t="n">
         <v>3.06174E7</v>
       </c>
       <c r="I5" t="n">
-        <v>3.9813702158328466E7</v>
+        <v>3.78327378927781E7</v>
       </c>
     </row>
     <row r="6">
@@ -1817,13 +1817,13 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9994408850552177</v>
+        <v>0.989162543228058</v>
       </c>
       <c r="H6" t="n">
         <v>4.286436E7</v>
       </c>
       <c r="I6" t="n">
-        <v>5.3935353791041754E7</v>
+        <v>5.136868984154477E7</v>
       </c>
     </row>
     <row r="7">
@@ -1840,13 +1840,13 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9996728604541602</v>
+        <v>0.9934771116924197</v>
       </c>
       <c r="H7" t="n">
         <v>5.511132E7</v>
       </c>
       <c r="I7" t="n">
-        <v>7.07514253754136E7</v>
+        <v>6.806111312098472E7</v>
       </c>
     </row>
     <row r="8">
@@ -1863,13 +1863,13 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9998067042220546</v>
+        <v>0.9964965779791392</v>
       </c>
       <c r="H8" t="n">
         <v>7.348176E7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.1900124480557613E8</v>
+        <v>1.1455587234319668E8</v>
       </c>
     </row>
     <row r="9">
@@ -1886,13 +1886,13 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.9999731903156053</v>
+        <v>0.9995871103949128</v>
       </c>
       <c r="H9" t="n">
         <v>1.8982788E8</v>
       </c>
       <c r="I9" t="n">
-        <v>3.4814374015445596E8</v>
+        <v>3.956877661925591E8</v>
       </c>
     </row>
   </sheetData>
@@ -1952,16 +1952,16 @@
         <v>1.97118745E7</v>
       </c>
       <c r="F2" t="n">
-        <v>1653908.6408364556</v>
+        <v>4923513.1250997335</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6581280993849672</v>
+        <v>0.4616286746346726</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>3312849.454411956</v>
+        <v>3458438.363092135</v>
       </c>
     </row>
     <row r="3">
@@ -1978,13 +1978,13 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.9606316994357893</v>
+        <v>0.8598693391640658</v>
       </c>
       <c r="H3" t="n">
         <v>8775702.0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.27360702601127E7</v>
+        <v>1.3373121776996812E7</v>
       </c>
     </row>
     <row r="4">
@@ -2001,13 +2001,13 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9936325183076831</v>
+        <v>0.9515215562071482</v>
       </c>
       <c r="H4" t="n">
         <v>1.950156E7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.614914843434777E7</v>
+        <v>2.6464887667325944E7</v>
       </c>
     </row>
     <row r="5">
@@ -2024,13 +2024,13 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9983329337856732</v>
+        <v>0.976440850412273</v>
       </c>
       <c r="H5" t="n">
         <v>3.25026E7</v>
       </c>
       <c r="I5" t="n">
-        <v>4.202981789841677E7</v>
+        <v>4.013995838420424E7</v>
       </c>
     </row>
     <row r="6">
@@ -2047,13 +2047,13 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.999271099255426</v>
+        <v>0.986866850232838</v>
       </c>
       <c r="H6" t="n">
         <v>4.550364E7</v>
       </c>
       <c r="I6" t="n">
-        <v>5.743214126497009E7</v>
+        <v>5.438066812248218E7</v>
       </c>
     </row>
     <row r="7">
@@ -2070,13 +2070,13 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9995702590334572</v>
+        <v>0.9919520084201023</v>
       </c>
       <c r="H7" t="n">
         <v>5.850468E7</v>
       </c>
       <c r="I7" t="n">
-        <v>7.53736137506149E7</v>
+        <v>7.205026025567152E7</v>
       </c>
     </row>
     <row r="8">
@@ -2093,13 +2093,13 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9997601953076558</v>
+        <v>0.9957050254150106</v>
       </c>
       <c r="H8" t="n">
         <v>7.800624E7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.2491313209890148E8</v>
+        <v>1.2073036610961138E8</v>
       </c>
     </row>
     <row r="9">
@@ -2116,13 +2116,13 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.9999762072348827</v>
+        <v>0.9994975110053588</v>
       </c>
       <c r="H9" t="n">
         <v>2.0151612E8</v>
       </c>
       <c r="I9" t="n">
-        <v>4.4702346755224353E8</v>
+        <v>4.73149124634565E8</v>
       </c>
     </row>
   </sheetData>
@@ -2182,16 +2182,16 @@
         <v>1.9878573E7</v>
       </c>
       <c r="F2" t="n">
-        <v>1999800.46226497</v>
+        <v>5706433.937212509</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6335948762519321</v>
+        <v>0.4286159273102752</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>3885385.380158215</v>
+        <v>4056269.913245586</v>
       </c>
     </row>
     <row r="3">
@@ -2208,13 +2208,13 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.9591259392713953</v>
+        <v>0.8530505182640625</v>
       </c>
       <c r="H3" t="n">
         <v>9907434.0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.4334689235811742E7</v>
+        <v>1.5024502234847074E7</v>
       </c>
     </row>
     <row r="4">
@@ -2231,13 +2231,13 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9943628247359607</v>
+        <v>0.9511587174793683</v>
       </c>
       <c r="H4" t="n">
         <v>2.201652E7</v>
       </c>
       <c r="I4" t="n">
-        <v>2.961642537741012E7</v>
+        <v>2.9263889294603713E7</v>
       </c>
     </row>
     <row r="5">
@@ -2254,13 +2254,13 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9986230902992886</v>
+        <v>0.9782664983044809</v>
       </c>
       <c r="H5" t="n">
         <v>3.66942E7</v>
       </c>
       <c r="I5" t="n">
-        <v>4.775699323438569E7</v>
+        <v>4.539111249645407E7</v>
       </c>
     </row>
     <row r="6">
@@ -2277,13 +2277,13 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9994007115098251</v>
+        <v>0.9881426096329953</v>
       </c>
       <c r="H6" t="n">
         <v>5.137188E7</v>
       </c>
       <c r="I6" t="n">
-        <v>6.491993241558396E7</v>
+        <v>6.164437190169979E7</v>
       </c>
     </row>
     <row r="7">
@@ -2300,13 +2300,13 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9996417750912</v>
+        <v>0.9928250886016818</v>
       </c>
       <c r="H7" t="n">
         <v>6.604956E7</v>
       </c>
       <c r="I7" t="n">
-        <v>8.517369695370026E7</v>
+        <v>8.161181633213389E7</v>
       </c>
     </row>
     <row r="8">
@@ -2323,13 +2323,13 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9997920373861846</v>
+        <v>0.9960944882713664</v>
       </c>
       <c r="H8" t="n">
         <v>8.806608E7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.452476616183532E8</v>
+        <v>1.3896632193171364E8</v>
       </c>
     </row>
     <row r="9">
@@ -2346,13 +2346,13 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.9999756018704159</v>
+        <v>0.999509773664337</v>
       </c>
       <c r="H9" t="n">
         <v>2.2750404E8</v>
       </c>
       <c r="I9" t="n">
-        <v>4.69535982135124E8</v>
+        <v>4.87814001123181E8</v>
       </c>
     </row>
   </sheetData>
@@ -2412,16 +2412,16 @@
         <v>1.9878573E7</v>
       </c>
       <c r="F2" t="n">
-        <v>2332567.935919793</v>
+        <v>6190411.1960252</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6357270715558908</v>
+        <v>0.43963175827560663</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>4317034.9805805115</v>
+        <v>4418677.373881135</v>
       </c>
     </row>
     <row r="3">
@@ -2438,13 +2438,13 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.9485694471127278</v>
+        <v>0.8459803427539794</v>
       </c>
       <c r="H3" t="n">
         <v>1.0402992E7</v>
       </c>
       <c r="I3" t="n">
-        <v>1.5080071432596907E7</v>
+        <v>1.579350854611252E7</v>
       </c>
     </row>
     <row r="4">
@@ -2461,13 +2461,13 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.99236746017936</v>
+        <v>0.9482767198631411</v>
       </c>
       <c r="H4" t="n">
         <v>2.311776E7</v>
       </c>
       <c r="I4" t="n">
-        <v>3.0825263426974304E7</v>
+        <v>3.072294380334842E7</v>
       </c>
     </row>
     <row r="5">
@@ -2484,13 +2484,13 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9981425729100374</v>
+        <v>0.9767779608727447</v>
       </c>
       <c r="H5" t="n">
         <v>3.85296E7</v>
       </c>
       <c r="I5" t="n">
-        <v>4.968679451625365E7</v>
+        <v>4.758502508109644E7</v>
       </c>
     </row>
     <row r="6">
@@ -2507,13 +2507,13 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9991887244622639</v>
+        <v>0.9872546183269795</v>
       </c>
       <c r="H6" t="n">
         <v>5.394144E7</v>
       </c>
       <c r="I6" t="n">
-        <v>6.819239374916738E7</v>
+        <v>6.446156090505294E7</v>
       </c>
     </row>
     <row r="7">
@@ -2530,13 +2530,13 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9995053467872166</v>
+        <v>0.9922773128634536</v>
       </c>
       <c r="H7" t="n">
         <v>6.935328E7</v>
       </c>
       <c r="I7" t="n">
-        <v>8.93313223459219E7</v>
+        <v>8.538632448796622E7</v>
       </c>
     </row>
     <row r="8">
@@ -2553,13 +2553,13 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.999703650760042</v>
+        <v>0.9958301332796876</v>
       </c>
       <c r="H8" t="n">
         <v>9.247104E7</v>
       </c>
       <c r="I8" t="n">
-        <v>1.5159870523060748E8</v>
+        <v>1.453338851568201E8</v>
       </c>
     </row>
     <row r="9">
@@ -2576,13 +2576,13 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.9999726338505284</v>
+        <v>0.999503535792031</v>
       </c>
       <c r="H9" t="n">
         <v>2.3888352E8</v>
       </c>
       <c r="I9" t="n">
-        <v>4.186385272719412E8</v>
+        <v>4.916614143020699E8</v>
       </c>
     </row>
   </sheetData>
@@ -2642,16 +2642,16 @@
         <v>1.641461E7</v>
       </c>
       <c r="F2" t="n">
-        <v>846460.3650605581</v>
+        <v>1668827.9067570076</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6661781790733986</v>
+        <v>0.5526031383017933</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>1664327.530048758</v>
+        <v>1671339.2434068162</v>
       </c>
     </row>
     <row r="3">
@@ -2668,13 +2668,13 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.9671715014855669</v>
+        <v>0.9267414212095201</v>
       </c>
       <c r="H3" t="n">
         <v>5217372.0</v>
       </c>
       <c r="I3" t="n">
-        <v>7602009.483340625</v>
+        <v>7855228.035305857</v>
       </c>
     </row>
     <row r="4">
@@ -2691,13 +2691,13 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9941243197371122</v>
+        <v>0.9747010742259488</v>
       </c>
       <c r="H4" t="n">
         <v>1.159416E7</v>
       </c>
       <c r="I4" t="n">
-        <v>1.5701256566748457E7</v>
+        <v>1.549078361283621E7</v>
       </c>
     </row>
     <row r="5">
@@ -2714,13 +2714,13 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9980144517597433</v>
+        <v>0.9879796717680164</v>
       </c>
       <c r="H5" t="n">
         <v>1.93236E7</v>
       </c>
       <c r="I5" t="n">
-        <v>2.521673079735341E7</v>
+        <v>2.4301885625519726E7</v>
       </c>
     </row>
     <row r="6">
@@ -2737,13 +2737,13 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9989992451846251</v>
+        <v>0.9933682859355172</v>
       </c>
       <c r="H6" t="n">
         <v>2.705304E7</v>
       </c>
       <c r="I6" t="n">
-        <v>3.431021206708852E7</v>
+        <v>3.2927077688631285E7</v>
       </c>
     </row>
     <row r="7">
@@ -2760,13 +2760,13 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9994383661871954</v>
+        <v>0.9963863290081214</v>
       </c>
       <c r="H7" t="n">
         <v>3.478248E7</v>
       </c>
       <c r="I7" t="n">
-        <v>4.433480260572623E7</v>
+        <v>4.331134747855724E7</v>
       </c>
     </row>
     <row r="8">
@@ -2783,13 +2783,13 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9996763249324839</v>
+        <v>0.9983322783788344</v>
       </c>
       <c r="H8" t="n">
         <v>4.637664E7</v>
       </c>
       <c r="I8" t="n">
-        <v>5.7910043451582864E7</v>
+        <v>5.742101873647532E7</v>
       </c>
     </row>
     <row r="9">
@@ -2806,13 +2806,13 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.9997598480865522</v>
+        <v>0.9990697311724128</v>
       </c>
       <c r="H9" t="n">
         <v>5.79708E7</v>
       </c>
       <c r="I9" t="n">
-        <v>1.0096551826153935E8</v>
+        <v>1.1193561784970199E8</v>
       </c>
     </row>
   </sheetData>
@@ -2872,16 +2872,16 @@
         <v>1.6594148E7</v>
       </c>
       <c r="F2" t="n">
-        <v>956518.0371239362</v>
+        <v>1884756.2957866257</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6553459086902202</v>
+        <v>0.5408280075602556</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>1811500.2126874519</v>
+        <v>1820029.4208101763</v>
       </c>
     </row>
     <row r="3">
@@ -2898,13 +2898,13 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.9644274596080498</v>
+        <v>0.9213922884139638</v>
       </c>
       <c r="H3" t="n">
         <v>5543964.0</v>
       </c>
       <c r="I3" t="n">
-        <v>8078020.873876323</v>
+        <v>8343968.919825887</v>
       </c>
     </row>
     <row r="4">
@@ -2921,13 +2921,13 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9937574378630346</v>
+        <v>0.9727978200507793</v>
       </c>
       <c r="H4" t="n">
         <v>1.231992E7</v>
       </c>
       <c r="I4" t="n">
-        <v>1.667456867846622E7</v>
+        <v>1.6461886530523205E7</v>
       </c>
     </row>
     <row r="5">
@@ -2944,13 +2944,13 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9979152891730265</v>
+        <v>0.986926716575024</v>
       </c>
       <c r="H5" t="n">
         <v>2.05332E7</v>
       </c>
       <c r="I5" t="n">
-        <v>2.6745049146721933E7</v>
+        <v>2.5724533708294947E7</v>
       </c>
     </row>
     <row r="6">
@@ -2967,13 +2967,13 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9989889206725167</v>
+        <v>0.9929825261290908</v>
       </c>
       <c r="H6" t="n">
         <v>2.874648E7</v>
       </c>
       <c r="I6" t="n">
-        <v>3.6308861922005706E7</v>
+        <v>3.493310405628449E7</v>
       </c>
     </row>
     <row r="7">
@@ -2990,13 +2990,13 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9993983421143405</v>
+        <v>0.9961148351816556</v>
       </c>
       <c r="H7" t="n">
         <v>3.695976E7</v>
       </c>
       <c r="I7" t="n">
-        <v>4.70969213222719E7</v>
+        <v>4.6091235173101574E7</v>
       </c>
     </row>
     <row r="8">
@@ -3013,13 +3013,13 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9996347507567126</v>
+        <v>0.9981695354289958</v>
       </c>
       <c r="H8" t="n">
         <v>4.927968E7</v>
       </c>
       <c r="I8" t="n">
-        <v>6.153931602701154E7</v>
+        <v>6.112215514187006E7</v>
       </c>
     </row>
     <row r="9">
@@ -3036,13 +3036,13 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.9997309895030465</v>
+        <v>0.9989786760971398</v>
       </c>
       <c r="H9" t="n">
         <v>6.15996E7</v>
       </c>
       <c r="I9" t="n">
-        <v>1.1048508799799043E8</v>
+        <v>1.1870808984394658E8</v>
       </c>
     </row>
   </sheetData>
@@ -3102,16 +3102,16 @@
         <v>1.6773686E7</v>
       </c>
       <c r="F2" t="n">
-        <v>1067733.4794895619</v>
+        <v>2109791.8256369177</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6461846251324843</v>
+        <v>0.5296808346120226</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>1993049.2059101241</v>
+        <v>2009121.7786474598</v>
       </c>
     </row>
     <row r="3">
@@ -3128,13 +3128,13 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.9645699818155652</v>
+        <v>0.9200633659173064</v>
       </c>
       <c r="H3" t="n">
         <v>6099624.0</v>
       </c>
       <c r="I3" t="n">
-        <v>8881612.922496442</v>
+        <v>9178514.805054188</v>
       </c>
     </row>
     <row r="4">
@@ -3151,13 +3151,13 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9938622912101729</v>
+        <v>0.9724718228301161</v>
       </c>
       <c r="H4" t="n">
         <v>1.355472E7</v>
       </c>
       <c r="I4" t="n">
-        <v>1.834261011536028E7</v>
+        <v>1.8109716915137056E7</v>
       </c>
     </row>
     <row r="5">
@@ -3174,13 +3174,13 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9979993067713322</v>
+        <v>0.9870244977758615</v>
       </c>
       <c r="H5" t="n">
         <v>2.25912E7</v>
       </c>
       <c r="I5" t="n">
-        <v>2.932170712374636E7</v>
+        <v>2.8245549062038075E7</v>
       </c>
     </row>
     <row r="6">
@@ -3197,13 +3197,13 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9990218607883801</v>
+        <v>0.9931516543233252</v>
       </c>
       <c r="H6" t="n">
         <v>3.162768E7</v>
       </c>
       <c r="I6" t="n">
-        <v>3.9954000064053394E7</v>
+        <v>3.841523221810642E7</v>
       </c>
     </row>
     <row r="7">
@@ -3220,13 +3220,13 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9993993568259236</v>
+        <v>0.9961390120215676</v>
       </c>
       <c r="H7" t="n">
         <v>4.066416E7</v>
       </c>
       <c r="I7" t="n">
-        <v>5.202520763720085E7</v>
+        <v>5.0702783694039635E7</v>
       </c>
     </row>
     <row r="8">
@@ -3243,13 +3243,13 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9996229808999644</v>
+        <v>0.9981585442817995</v>
       </c>
       <c r="H8" t="n">
         <v>5.421888E7</v>
       </c>
       <c r="I8" t="n">
-        <v>6.765461660261361E7</v>
+        <v>6.716692061372015E7</v>
       </c>
     </row>
     <row r="9">
@@ -3266,13 +3266,13 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.999719262659382</v>
+        <v>0.9989680860843586</v>
       </c>
       <c r="H9" t="n">
         <v>6.77736E7</v>
       </c>
       <c r="I9" t="n">
-        <v>1.2080929262096274E8</v>
+        <v>1.320787312817226E8</v>
       </c>
     </row>
   </sheetData>
@@ -3332,16 +3332,16 @@
         <v>1.6953224E7</v>
       </c>
       <c r="F2" t="n">
-        <v>1086573.9856318426</v>
+        <v>2153873.4198476095</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6498988039089202</v>
+        <v>0.5323491272220553</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>1980728.3835280444</v>
+        <v>1990359.6785898367</v>
       </c>
     </row>
     <row r="3">
@@ -3358,13 +3358,13 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.9607659876375136</v>
+        <v>0.9146805351005802</v>
       </c>
       <c r="H3" t="n">
         <v>5971806.0</v>
       </c>
       <c r="I3" t="n">
-        <v>8729210.917560574</v>
+        <v>9007114.22505668</v>
       </c>
     </row>
     <row r="4">
@@ -3381,13 +3381,13 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9931897909211841</v>
+        <v>0.9706006951834059</v>
       </c>
       <c r="H4" t="n">
         <v>1.327068E7</v>
       </c>
       <c r="I4" t="n">
-        <v>1.7918080361653913E7</v>
+        <v>1.7711330518673718E7</v>
       </c>
     </row>
     <row r="5">
@@ -3404,13 +3404,13 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9977808940647513</v>
+        <v>0.9859032122739604</v>
       </c>
       <c r="H5" t="n">
         <v>2.21178E7</v>
       </c>
       <c r="I5" t="n">
-        <v>2.844834034316545E7</v>
+        <v>2.762299465733317E7</v>
       </c>
     </row>
     <row r="6">
@@ -3427,13 +3427,13 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9989097059060861</v>
+        <v>0.9922486130071778</v>
       </c>
       <c r="H6" t="n">
         <v>3.096492E7</v>
       </c>
       <c r="I6" t="n">
-        <v>3.913951221807123E7</v>
+        <v>3.75385900788343E7</v>
       </c>
     </row>
     <row r="7">
@@ -3450,13 +3450,13 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9993083321496843</v>
+        <v>0.9956074431624333</v>
       </c>
       <c r="H7" t="n">
         <v>3.981204E7</v>
       </c>
       <c r="I7" t="n">
-        <v>5.110954124851519E7</v>
+        <v>4.955017828241508E7</v>
       </c>
     </row>
     <row r="8">
@@ -3473,13 +3473,13 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.999574299260129</v>
+        <v>0.9979783786258001</v>
       </c>
       <c r="H8" t="n">
         <v>5.308272E7</v>
       </c>
       <c r="I8" t="n">
-        <v>6.647881989664044E7</v>
+        <v>6.523558216550519E7</v>
       </c>
     </row>
     <row r="9">
@@ -3496,13 +3496,13 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.9996812995569456</v>
+        <v>0.9988748452801662</v>
       </c>
       <c r="H9" t="n">
         <v>6.63534E7</v>
       </c>
       <c r="I9" t="n">
-        <v>1.1644473295790741E8</v>
+        <v>1.2519405026382275E8</v>
       </c>
     </row>
   </sheetData>
@@ -3562,16 +3562,16 @@
         <v>1.714104E7</v>
       </c>
       <c r="F2" t="n">
-        <v>1184631.795152311</v>
+        <v>2366349.9359030942</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6401140770921718</v>
+        <v>0.5184649239486052</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>2065929.8944002287</v>
+        <v>2075172.572102523</v>
       </c>
     </row>
     <row r="3">
@@ -3588,13 +3588,13 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.9565615038527417</v>
+        <v>0.9067410728870594</v>
       </c>
       <c r="H3" t="n">
         <v>6092010.0</v>
       </c>
       <c r="I3" t="n">
-        <v>8913203.881827205</v>
+        <v>9218961.976204447</v>
       </c>
     </row>
     <row r="4">
@@ -3611,13 +3611,13 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.992438673499391</v>
+        <v>0.9676496875335452</v>
       </c>
       <c r="H4" t="n">
         <v>1.35378E7</v>
       </c>
       <c r="I4" t="n">
-        <v>1.813628430783372E7</v>
+        <v>1.8037567836599953E7</v>
       </c>
     </row>
     <row r="5">
@@ -3634,13 +3634,13 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9976163640012508</v>
+        <v>0.9845696643844247</v>
       </c>
       <c r="H5" t="n">
         <v>2.2563E7</v>
       </c>
       <c r="I5" t="n">
-        <v>2.8931690760949038E7</v>
+        <v>2.814950097671019E7</v>
       </c>
     </row>
     <row r="6">
@@ -3657,13 +3657,13 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9988408521303258</v>
+        <v>0.9915555298861679</v>
       </c>
       <c r="H6" t="n">
         <v>3.15882E7</v>
       </c>
       <c r="I6" t="n">
-        <v>3.992614010906542E7</v>
+        <v>3.826938385477442E7</v>
       </c>
     </row>
     <row r="7">
@@ -3680,13 +3680,13 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.999270230977817</v>
+        <v>0.9950909629754088</v>
       </c>
       <c r="H7" t="n">
         <v>4.06134E7</v>
       </c>
       <c r="I7" t="n">
-        <v>5.227396622909453E7</v>
+        <v>5.0359178852024965E7</v>
       </c>
     </row>
     <row r="8">
@@ -3703,13 +3703,13 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9995345673308037</v>
+        <v>0.997724700484918</v>
       </c>
       <c r="H8" t="n">
         <v>5.41512E7</v>
       </c>
       <c r="I8" t="n">
-        <v>6.781191637970534E7</v>
+        <v>6.621771454881633E7</v>
       </c>
     </row>
     <row r="9">
@@ -3726,13 +3726,13 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.9996457041113025</v>
+        <v>0.9987407415186009</v>
       </c>
       <c r="H9" t="n">
         <v>6.7689E7</v>
       </c>
       <c r="I9" t="n">
-        <v>1.2211471611141536E8</v>
+        <v>1.2867909468057135E8</v>
       </c>
     </row>
   </sheetData>
@@ -3792,16 +3792,16 @@
         <v>1.7328856E7</v>
       </c>
       <c r="F2" t="n">
-        <v>1307742.4716858943</v>
+        <v>2641488.2158844997</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6285299502748479</v>
+        <v>0.5016568318185575</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>2198976.1707015517</v>
+        <v>2208179.3006362594</v>
       </c>
     </row>
     <row r="3">
@@ -3818,13 +3818,13 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.9536643388346006</v>
+        <v>0.8995192758252478</v>
       </c>
       <c r="H3" t="n">
         <v>6321402.0</v>
       </c>
       <c r="I3" t="n">
-        <v>9252801.662319085</v>
+        <v>9575596.398070248</v>
       </c>
     </row>
     <row r="4">
@@ -3841,13 +3841,13 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9918509334949751</v>
+        <v>0.9650290821275218</v>
       </c>
       <c r="H4" t="n">
         <v>1.404756E7</v>
       </c>
       <c r="I4" t="n">
-        <v>1.8825545524635635E7</v>
+        <v>1.8691065643380888E7</v>
       </c>
     </row>
     <row r="5">
@@ -3864,13 +3864,13 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9974025405947167</v>
+        <v>0.9831445307180117</v>
       </c>
       <c r="H5" t="n">
         <v>2.34126E7</v>
       </c>
       <c r="I5" t="n">
-        <v>3.0029644259843007E7</v>
+        <v>2.917209685685181E7</v>
       </c>
     </row>
     <row r="6">
@@ -3887,13 +3887,13 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9987111093773299</v>
+        <v>0.9906655119068448</v>
       </c>
       <c r="H6" t="n">
         <v>3.277764E7</v>
       </c>
       <c r="I6" t="n">
-        <v>4.1412260158299066E7</v>
+        <v>3.958111106560848E7</v>
       </c>
     </row>
     <row r="7">
@@ -3910,13 +3910,13 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9991858666261639</v>
+        <v>0.9946718352325162</v>
       </c>
       <c r="H7" t="n">
         <v>4.214268E7</v>
       </c>
       <c r="I7" t="n">
-        <v>5.421788356212758E7</v>
+        <v>5.224839400670173E7</v>
       </c>
     </row>
     <row r="8">
@@ -3933,13 +3933,13 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9994746335245673</v>
+        <v>0.997435491413859</v>
       </c>
       <c r="H8" t="n">
         <v>5.619024E7</v>
       </c>
       <c r="I8" t="n">
-        <v>7.047845362417074E7</v>
+        <v>6.883169977200826E7</v>
       </c>
     </row>
     <row r="9">
@@ -3956,13 +3956,13 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.9995966265747721</v>
+        <v>0.9985523568318647</v>
       </c>
       <c r="H9" t="n">
         <v>7.02378E7</v>
       </c>
       <c r="I9" t="n">
-        <v>1.2822818671691291E8</v>
+        <v>1.366318996521647E8</v>
       </c>
     </row>
   </sheetData>
@@ -4022,16 +4022,16 @@
         <v>1.75047685E7</v>
       </c>
       <c r="F2" t="n">
-        <v>1147331.5891256188</v>
+        <v>2935298.7715447797</v>
       </c>
       <c r="G2" t="n">
-        <v>0.645408164066837</v>
+        <v>0.4880844610998426</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>2263236.3178414656</v>
+        <v>2346473.7955866125</v>
       </c>
     </row>
     <row r="3">
@@ -4048,13 +4048,13 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.967016644636003</v>
+        <v>0.8901482187553638</v>
       </c>
       <c r="H3" t="n">
         <v>6513372.0</v>
       </c>
       <c r="I3" t="n">
-        <v>9450864.852813676</v>
+        <v>9810742.009094743</v>
       </c>
     </row>
     <row r="4">
@@ -4071,13 +4071,13 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9947112696748889</v>
+        <v>0.9614965487832644</v>
       </c>
       <c r="H4" t="n">
         <v>1.447416E7</v>
       </c>
       <c r="I4" t="n">
-        <v>1.949988657156363E7</v>
+        <v>1.913771731377209E7</v>
       </c>
     </row>
     <row r="5">
@@ -4094,13 +4094,13 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9983861540356846</v>
+        <v>0.981392384595089</v>
       </c>
       <c r="H5" t="n">
         <v>2.41236E7</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1290537661730688E7</v>
+        <v>2.97619181089628E7</v>
       </c>
     </row>
     <row r="6">
@@ -4117,13 +4117,13 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9992067304403369</v>
+        <v>0.9895204555261613</v>
       </c>
       <c r="H6" t="n">
         <v>3.377304E7</v>
       </c>
       <c r="I6" t="n">
-        <v>4.247315480859327E7</v>
+        <v>4.036655432380739E7</v>
       </c>
     </row>
     <row r="7">
@@ -4140,13 +4140,13 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9994981938778568</v>
+        <v>0.9937053152116807</v>
       </c>
       <c r="H7" t="n">
         <v>4.342248E7</v>
       </c>
       <c r="I7" t="n">
-        <v>5.577411017303985E7</v>
+        <v>5.342168808578899E7</v>
       </c>
     </row>
     <row r="8">
@@ -4163,13 +4163,13 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9996873994648944</v>
+        <v>0.9968728521031284</v>
       </c>
       <c r="H8" t="n">
         <v>5.789664E7</v>
       </c>
       <c r="I8" t="n">
-        <v>7.21352676039188E7</v>
+        <v>6.973182445486027E7</v>
       </c>
     </row>
     <row r="9">
@@ -4186,13 +4186,13 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.9997752041108113</v>
+        <v>0.9983198292510981</v>
       </c>
       <c r="H9" t="n">
         <v>7.23708E7</v>
       </c>
       <c r="I9" t="n">
-        <v>1.3841612412565216E8</v>
+        <v>1.3699493844600663E8</v>
       </c>
     </row>
   </sheetData>
@@ -4252,16 +4252,16 @@
         <v>1.7680681E7</v>
       </c>
       <c r="F2" t="n">
-        <v>1259175.1501525552</v>
+        <v>3190259.011136368</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6409780822356334</v>
+        <v>0.4806440430659882</v>
       </c>
       <c r="H2" t="n">
         <v>0.0</v>
       </c>
       <c r="I2" t="n">
-        <v>2368458.3278137487</v>
+        <v>2462466.913533707</v>
       </c>
     </row>
     <row r="3">
@@ -4278,13 +4278,13 @@
       <c r="E3"/>
       <c r="F3"/>
       <c r="G3" t="n">
-        <v>0.9623437015802728</v>
+        <v>0.8812971061465336</v>
       </c>
       <c r="H3" t="n">
         <v>6605064.0</v>
       </c>
       <c r="I3" t="n">
-        <v>9634833.437469754</v>
+        <v>1.0034418346884461E7</v>
       </c>
     </row>
     <row r="4">
@@ -4301,13 +4301,13 @@
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4" t="n">
-        <v>0.9935895568728377</v>
+        <v>0.9582821498787292</v>
       </c>
       <c r="H4" t="n">
         <v>1.467792E7</v>
       </c>
       <c r="I4" t="n">
-        <v>1.9761514969502192E7</v>
+        <v>1.956380347951724E7</v>
       </c>
     </row>
     <row r="5">
@@ -4324,13 +4324,13 @@
       <c r="E5"/>
       <c r="F5"/>
       <c r="G5" t="n">
-        <v>0.9980428355672499</v>
+        <v>0.9799046201896862</v>
       </c>
       <c r="H5" t="n">
         <v>2.44632E7</v>
       </c>
       <c r="I5" t="n">
-        <v>3.1744207297678705E7</v>
+        <v>3.047447247917193E7</v>
       </c>
     </row>
     <row r="6">
@@ -4347,13 +4347,13 @@
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6" t="n">
-        <v>0.9990360099817422</v>
+        <v>0.9886675745125428</v>
       </c>
       <c r="H6" t="n">
         <v>3.424848E7</v>
       </c>
       <c r="I6" t="n">
-        <v>4.3463258274250865E7</v>
+        <v>4.130450746471901E7</v>
       </c>
     </row>
     <row r="7">
@@ -4370,13 +4370,13 @@
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7" t="n">
-        <v>0.9993771167524599</v>
+        <v>0.9932811977095226</v>
       </c>
       <c r="H7" t="n">
         <v>4.403376E7</v>
       </c>
       <c r="I7" t="n">
-        <v>5.6765018109277904E7</v>
+        <v>5.457896044744523E7</v>
       </c>
     </row>
     <row r="8">
@@ -4393,13 +4393,13 @@
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8" t="n">
-        <v>0.9995909659814574</v>
+        <v>0.9966956589511456</v>
       </c>
       <c r="H8" t="n">
         <v>5.871168E7</v>
       </c>
       <c r="I8" t="n">
-        <v>7.37529284284318E7</v>
+        <v>7.141594044189335E7</v>
       </c>
     </row>
     <row r="9">
@@ -4416,13 +4416,13 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="n">
-        <v>0.9996900571872769</v>
+        <v>0.9981301625203237</v>
       </c>
       <c r="H9" t="n">
         <v>7.33896E7</v>
       </c>
       <c r="I9" t="n">
-        <v>1.3932040974467435E8</v>
+        <v>1.399759051409268E8</v>
       </c>
     </row>
   </sheetData>
